--- a/m n° 001 saccade.xlsx
+++ b/m n° 001 saccade.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="img_5.jpg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="img_1.jpg" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="street.jpg" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="img_2.jpg" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="img_3.jpg" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="img_4.jpg" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_5.jpg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_1.jpg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="street.jpg" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_2.jpg" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_3.jpg" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_4.jpg" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/m n° 001 saccade.xlsx
+++ b/m n° 001 saccade.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_5.jpg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_1.jpg" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="street.jpg" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_2.jpg" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_3.jpg" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_4.jpg" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="img_5.jpg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="img_1.jpg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="street.jpg" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="img_2.jpg" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="img_3.jpg" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="img_4.jpg" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/m n° 001 saccade.xlsx
+++ b/m n° 001 saccade.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,29 +486,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-85</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>-91</v>
+        <v>-99</v>
       </c>
       <c r="F2" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G2" t="n">
-        <v>100.9475555419922</v>
+        <v>100.9236602783203</v>
       </c>
       <c r="H2" t="n">
-        <v>100.9876098632812</v>
+        <v>100.9716186523438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04005450010299683</v>
+        <v>0.04795800149440765</v>
       </c>
     </row>
     <row r="3">
@@ -517,29 +517,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>120</v>
+        <v>-12</v>
       </c>
       <c r="D3" t="n">
-        <v>-84</v>
+        <v>-48</v>
       </c>
       <c r="E3" t="n">
-        <v>101</v>
+        <v>-30</v>
       </c>
       <c r="F3" t="n">
-        <v>-84</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>101.2112121582031</v>
+        <v>102.5976104736328</v>
       </c>
       <c r="H3" t="n">
-        <v>101.2516021728516</v>
+        <v>102.6477203369141</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04038900136947632</v>
+        <v>0.05010649934411049</v>
       </c>
     </row>
     <row r="4">
@@ -548,29 +548,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>-14</v>
       </c>
       <c r="D4" t="n">
-        <v>-86</v>
+        <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>-69</v>
+        <v>121</v>
       </c>
       <c r="G4" t="n">
-        <v>102.2396087646484</v>
+        <v>104.7096786499023</v>
       </c>
       <c r="H4" t="n">
-        <v>102.2796630859375</v>
+        <v>104.7475509643555</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04005499929189682</v>
+        <v>0.0378745011985302</v>
       </c>
     </row>
     <row r="5">
@@ -579,29 +579,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-74</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
-        <v>120</v>
+        <v>-116</v>
       </c>
       <c r="E5" t="n">
-        <v>-105</v>
+        <v>-35</v>
       </c>
       <c r="F5" t="n">
-        <v>-123</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>102.7878112792969</v>
+        <v>105.0556945800781</v>
       </c>
       <c r="H5" t="n">
-        <v>102.8315582275391</v>
+        <v>105.1016235351562</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04374599829316139</v>
+        <v>0.04592899978160858</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-105</v>
+        <v>-46</v>
       </c>
       <c r="D6" t="n">
-        <v>-126</v>
+        <v>-17</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>-41</v>
       </c>
       <c r="F6" t="n">
-        <v>-45</v>
+        <v>72</v>
       </c>
       <c r="G6" t="n">
-        <v>102.8276824951172</v>
+        <v>105.2276458740234</v>
       </c>
       <c r="H6" t="n">
-        <v>103.0354919433594</v>
+        <v>105.2795639038086</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2078119963407516</v>
+        <v>0.05191349983215332</v>
       </c>
     </row>
     <row r="7">
@@ -641,29 +641,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="G7" t="n">
-        <v>103.6056442260742</v>
+        <v>106.9797439575195</v>
       </c>
       <c r="H7" t="n">
-        <v>103.6475982666016</v>
+        <v>107.031608581543</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04194900020956993</v>
+        <v>0.05186200141906738</v>
       </c>
     </row>
     <row r="8">
@@ -672,29 +672,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-59</v>
+        <v>53</v>
       </c>
       <c r="D8" t="n">
-        <v>-7</v>
+        <v>113</v>
       </c>
       <c r="E8" t="n">
-        <v>-52</v>
+        <v>-93</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>-66</v>
       </c>
       <c r="G8" t="n">
-        <v>104.3136749267578</v>
+        <v>107.2056121826172</v>
       </c>
       <c r="H8" t="n">
-        <v>104.355598449707</v>
+        <v>107.2476501464844</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04192100092768669</v>
+        <v>0.0420369990170002</v>
       </c>
     </row>
     <row r="9">
@@ -703,308 +703,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>-121</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>-75</v>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>120</v>
+        <v>-38</v>
       </c>
       <c r="G9" t="n">
-        <v>104.7276458740234</v>
+        <v>107.4636306762695</v>
       </c>
       <c r="H9" t="n">
-        <v>104.7715835571289</v>
+        <v>107.5095977783203</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04393450170755386</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>-51</v>
-      </c>
-      <c r="D10" t="n">
-        <v>57</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-35</v>
-      </c>
-      <c r="F10" t="n">
-        <v>30</v>
-      </c>
-      <c r="G10" t="n">
-        <v>105.0756607055664</v>
-      </c>
-      <c r="H10" t="n">
-        <v>105.1196670532227</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.04400299862027168</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-36</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-62</v>
-      </c>
-      <c r="F11" t="n">
-        <v>58</v>
-      </c>
-      <c r="G11" t="n">
-        <v>105.1136703491211</v>
-      </c>
-      <c r="H11" t="n">
-        <v>105.3195495605469</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2058800011873245</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-125</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-27</v>
-      </c>
-      <c r="E12" t="n">
-        <v>120</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>105.6835861206055</v>
-      </c>
-      <c r="H12" t="n">
-        <v>105.7236022949219</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.04001300036907196</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>21</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-39</v>
-      </c>
-      <c r="G13" t="n">
-        <v>105.9815368652344</v>
-      </c>
-      <c r="H13" t="n">
-        <v>106.0236740112305</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.04213900119066238</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-105</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-26</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-122</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>106.7919464111328</v>
-      </c>
-      <c r="H14" t="n">
-        <v>106.832763671875</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.04082050174474716</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>-116</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>45</v>
-      </c>
-      <c r="F15" t="n">
-        <v>80</v>
-      </c>
-      <c r="G15" t="n">
-        <v>106.8288803100586</v>
-      </c>
-      <c r="H15" t="n">
-        <v>107.0355758666992</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.2066935002803802</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>46</v>
-      </c>
-      <c r="D16" t="n">
-        <v>79</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-113</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-85</v>
-      </c>
-      <c r="G16" t="n">
-        <v>107.031608581543</v>
-      </c>
-      <c r="H16" t="n">
-        <v>107.2356719970703</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.2040600031614304</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-52</v>
-      </c>
-      <c r="E17" t="n">
-        <v>61</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-28</v>
-      </c>
-      <c r="G17" t="n">
-        <v>107.4957046508789</v>
-      </c>
-      <c r="H17" t="n">
-        <v>107.5395431518555</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.04383800178766251</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>52</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-24</v>
-      </c>
-      <c r="E18" t="n">
-        <v>49</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-62</v>
-      </c>
-      <c r="G18" t="n">
-        <v>107.5355911254883</v>
-      </c>
-      <c r="H18" t="n">
-        <v>107.5996017456055</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.06400849670171738</v>
+        <v>0.04596849903464317</v>
       </c>
     </row>
   </sheetData>
@@ -1074,29 +795,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-61</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>-3</v>
       </c>
       <c r="E2" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" t="n">
-        <v>-102</v>
+        <v>-95</v>
       </c>
       <c r="G2" t="n">
-        <v>64.81558990478516</v>
+        <v>64.80352020263672</v>
       </c>
       <c r="H2" t="n">
-        <v>64.85757446289062</v>
+        <v>64.8436279296875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04198449850082397</v>
+        <v>0.04010500013828278</v>
       </c>
     </row>
     <row r="3">
@@ -1105,29 +826,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-11</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>-44</v>
+        <v>-92</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>-9</v>
       </c>
       <c r="F3" t="n">
-        <v>-51</v>
+        <v>-46</v>
       </c>
       <c r="G3" t="n">
-        <v>65.6666259765625</v>
+        <v>65.62763214111328</v>
       </c>
       <c r="H3" t="n">
-        <v>65.70762634277344</v>
+        <v>65.66265106201172</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04100000113248825</v>
+        <v>0.03501600027084351</v>
       </c>
     </row>
     <row r="4">
@@ -1136,29 +857,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>-6</v>
       </c>
       <c r="E4" t="n">
-        <v>-8</v>
+        <v>-17</v>
       </c>
       <c r="F4" t="n">
         <v>84</v>
       </c>
       <c r="G4" t="n">
-        <v>66.16966247558594</v>
+        <v>66.13561248779297</v>
       </c>
       <c r="H4" t="n">
-        <v>66.21160888671875</v>
+        <v>66.2235107421875</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04194299876689911</v>
+        <v>0.08789400011301041</v>
       </c>
     </row>
     <row r="5">
@@ -1167,29 +888,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G5" t="n">
-        <v>66.20758056640625</v>
+        <v>66.25164794921875</v>
       </c>
       <c r="H5" t="n">
-        <v>66.41163635253906</v>
+        <v>66.28766632080078</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2040510028600693</v>
+        <v>0.03601349890232086</v>
       </c>
     </row>
     <row r="6">
@@ -1198,29 +919,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>-128</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G6" t="n">
-        <v>66.7515869140625</v>
+        <v>67.47364807128906</v>
       </c>
       <c r="H6" t="n">
-        <v>66.7916259765625</v>
+        <v>67.52359008789062</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0400409996509552</v>
+        <v>0.04994349926710129</v>
       </c>
     </row>
     <row r="7">
@@ -1229,29 +950,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>110</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="n">
-        <v>84</v>
+        <v>-65</v>
       </c>
       <c r="G7" t="n">
-        <v>67.51958465576172</v>
+        <v>67.88760375976562</v>
       </c>
       <c r="H7" t="n">
-        <v>67.56157684326172</v>
+        <v>67.92362213134766</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04199250042438507</v>
+        <v>0.03601599857211113</v>
       </c>
     </row>
     <row r="8">
@@ -1260,29 +981,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-8</v>
+        <v>-27</v>
       </c>
       <c r="D8" t="n">
-        <v>-23</v>
+        <v>-61</v>
       </c>
       <c r="E8" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F8" t="n">
-        <v>-89</v>
+        <v>-54</v>
       </c>
       <c r="G8" t="n">
-        <v>67.91165924072266</v>
+        <v>68.34358978271484</v>
       </c>
       <c r="H8" t="n">
-        <v>67.95758056640625</v>
+        <v>68.38362884521484</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04591749981045723</v>
+        <v>0.04003649950027466</v>
       </c>
     </row>
     <row r="9">
@@ -1291,29 +1012,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-116</v>
+        <v>121</v>
       </c>
       <c r="D9" t="n">
-        <v>-106</v>
+        <v>-91</v>
       </c>
       <c r="E9" t="n">
-        <v>-119</v>
+        <v>56</v>
       </c>
       <c r="F9" t="n">
-        <v>-91</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>68.45174407958984</v>
+        <v>68.93954467773438</v>
       </c>
       <c r="H9" t="n">
-        <v>68.49562835693359</v>
+        <v>68.99558258056641</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04388250038027763</v>
+        <v>0.05603950098156929</v>
       </c>
     </row>
     <row r="10">
@@ -1322,29 +1043,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>-25</v>
       </c>
       <c r="G10" t="n">
-        <v>68.96994018554688</v>
+        <v>70.45960235595703</v>
       </c>
       <c r="H10" t="n">
-        <v>69.01158142089844</v>
+        <v>70.51964569091797</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0416405014693737</v>
+        <v>0.06004200130701065</v>
       </c>
     </row>
     <row r="11">
@@ -1353,29 +1074,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>-41</v>
       </c>
       <c r="E11" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>-34</v>
+        <v>-112</v>
       </c>
       <c r="G11" t="n">
-        <v>70.48759460449219</v>
+        <v>70.53956604003906</v>
       </c>
       <c r="H11" t="n">
-        <v>70.53157043457031</v>
+        <v>70.57767486572266</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04397099837660789</v>
+        <v>0.03811300173401833</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1445,29 +1166,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>-100</v>
       </c>
       <c r="D2" t="n">
-        <v>-81</v>
+        <v>124</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>-81</v>
+        <v>-69</v>
       </c>
       <c r="G2" t="n">
-        <v>76.9736328125</v>
+        <v>79.25164031982422</v>
       </c>
       <c r="H2" t="n">
-        <v>76.98562622070312</v>
+        <v>79.29365539550781</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01199350040405989</v>
+        <v>0.04201250150799751</v>
       </c>
     </row>
     <row r="3">
@@ -1476,29 +1197,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>-80</v>
+        <v>-76</v>
       </c>
       <c r="E3" t="n">
         <v>-95</v>
       </c>
       <c r="F3" t="n">
-        <v>-91</v>
+        <v>-93</v>
       </c>
       <c r="G3" t="n">
-        <v>76.99565124511719</v>
+        <v>80.85963439941406</v>
       </c>
       <c r="H3" t="n">
-        <v>77.03958892822266</v>
+        <v>80.90788269042969</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04393649846315384</v>
+        <v>0.04824750125408173</v>
       </c>
     </row>
     <row r="4">
@@ -1507,91 +1228,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>111</v>
+        <v>-110</v>
       </c>
       <c r="D4" t="n">
-        <v>-69</v>
+        <v>-62</v>
       </c>
       <c r="E4" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>-102</v>
+        <v>-36</v>
       </c>
       <c r="G4" t="n">
-        <v>79.29365539550781</v>
+        <v>82.39564514160156</v>
       </c>
       <c r="H4" t="n">
-        <v>79.33560943603516</v>
+        <v>82.43556213378906</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04195399954915047</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-59</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-97</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-86</v>
-      </c>
-      <c r="G5" t="n">
-        <v>80.88165283203125</v>
-      </c>
-      <c r="H5" t="n">
-        <v>80.92360687255859</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.04195449873805046</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>-126</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-26</v>
-      </c>
-      <c r="E6" t="n">
-        <v>88</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>82.41957092285156</v>
-      </c>
-      <c r="H6" t="n">
-        <v>82.45964050292969</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.04006899893283844</v>
+        <v>0.03992100059986115</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1661,29 +1320,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>-73</v>
+        <v>-83</v>
       </c>
       <c r="G2" t="n">
-        <v>53.23162841796875</v>
+        <v>53.21150588989258</v>
       </c>
       <c r="H2" t="n">
-        <v>53.27566528320312</v>
+        <v>53.24965667724609</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04403800144791603</v>
+        <v>0.03815000131726265</v>
       </c>
     </row>
     <row r="3">
@@ -1692,29 +1351,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>-80</v>
       </c>
       <c r="D3" t="n">
-        <v>-69</v>
+        <v>-66</v>
       </c>
       <c r="E3" t="n">
-        <v>-110</v>
+        <v>-3</v>
       </c>
       <c r="F3" t="n">
-        <v>-53</v>
+        <v>119</v>
       </c>
       <c r="G3" t="n">
-        <v>53.27154541015625</v>
+        <v>53.98760986328125</v>
       </c>
       <c r="H3" t="n">
-        <v>53.47562026977539</v>
+        <v>54.04361724853516</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2040774971246719</v>
+        <v>0.0560075007379055</v>
       </c>
     </row>
     <row r="4">
@@ -1723,29 +1382,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>-27</v>
       </c>
       <c r="D4" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="E4" t="n">
-        <v>-14</v>
+        <v>-53</v>
       </c>
       <c r="F4" t="n">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="G4" t="n">
-        <v>54.01604461669922</v>
+        <v>54.79563903808594</v>
       </c>
       <c r="H4" t="n">
-        <v>54.05765151977539</v>
+        <v>54.84967041015625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04160749912261963</v>
+        <v>0.05403000116348267</v>
       </c>
     </row>
     <row r="5">
@@ -1754,29 +1413,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-34</v>
+        <v>-38</v>
       </c>
       <c r="D5" t="n">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="E5" t="n">
-        <v>-67</v>
+        <v>-31</v>
       </c>
       <c r="F5" t="n">
-        <v>-127</v>
+        <v>-126</v>
       </c>
       <c r="G5" t="n">
-        <v>54.81957626342773</v>
+        <v>55.92778015136719</v>
       </c>
       <c r="H5" t="n">
-        <v>54.861572265625</v>
+        <v>55.9996337890625</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04199599847197533</v>
+        <v>0.07185400277376175</v>
       </c>
     </row>
     <row r="6">
@@ -1785,29 +1444,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>-34</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>-125</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>-54</v>
       </c>
       <c r="F6" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G6" t="n">
-        <v>55.94355010986328</v>
+        <v>56.00357818603516</v>
       </c>
       <c r="H6" t="n">
-        <v>55.98361587524414</v>
+        <v>56.04360580444336</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04006800055503845</v>
+        <v>0.04002850130200386</v>
       </c>
     </row>
     <row r="7">
@@ -1816,29 +1475,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90</v>
+        <v>-77</v>
       </c>
       <c r="D7" t="n">
-        <v>-31</v>
+        <v>-91</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G7" t="n">
-        <v>56.76163864135742</v>
+        <v>56.73564910888672</v>
       </c>
       <c r="H7" t="n">
-        <v>56.80354309082031</v>
+        <v>56.81561279296875</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0419050008058548</v>
+        <v>0.07996399700641632</v>
       </c>
     </row>
     <row r="8">
@@ -1847,29 +1506,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G8" t="n">
-        <v>57.29579162597656</v>
+        <v>56.81965255737305</v>
       </c>
       <c r="H8" t="n">
-        <v>57.29965972900391</v>
+        <v>56.86555480957031</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00386850000359118</v>
+        <v>0.04590250179171562</v>
       </c>
     </row>
     <row r="9">
@@ -1878,29 +1537,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E9" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F9" t="n">
-        <v>107</v>
+        <v>-43</v>
       </c>
       <c r="G9" t="n">
-        <v>57.30368804931641</v>
+        <v>57.37574005126953</v>
       </c>
       <c r="H9" t="n">
-        <v>57.30768966674805</v>
+        <v>57.4436149597168</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004002499859780073</v>
+        <v>0.06787849962711334</v>
       </c>
     </row>
     <row r="10">
@@ -1909,29 +1568,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D10" t="n">
+        <v>-37</v>
+      </c>
+      <c r="E10" t="n">
         <v>109</v>
       </c>
-      <c r="E10" t="n">
-        <v>80</v>
-      </c>
       <c r="F10" t="n">
-        <v>107</v>
+        <v>-15</v>
       </c>
       <c r="G10" t="n">
-        <v>57.31179809570312</v>
+        <v>57.48762130737305</v>
       </c>
       <c r="H10" t="n">
-        <v>57.3157844543457</v>
+        <v>57.52767944335938</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00398549996316433</v>
+        <v>0.04006100073456764</v>
       </c>
     </row>
     <row r="11">
@@ -1940,29 +1599,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F11" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>57.31963729858398</v>
+        <v>58.05774307250977</v>
       </c>
       <c r="H11" t="n">
-        <v>57.32362365722656</v>
+        <v>58.10364151000977</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003988500218838453</v>
+        <v>0.04589549824595451</v>
       </c>
     </row>
     <row r="12">
@@ -1971,29 +1630,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>85</v>
+        <v>-109</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F12" t="n">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>57.32758331298828</v>
+        <v>58.47564697265625</v>
       </c>
       <c r="H12" t="n">
-        <v>57.33161163330078</v>
+        <v>58.51969146728516</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004026500042527914</v>
+        <v>0.04404349997639656</v>
       </c>
     </row>
     <row r="13">
@@ -2002,153 +1661,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E13" t="n">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>108</v>
+        <v>-10</v>
       </c>
       <c r="G13" t="n">
-        <v>57.33960342407227</v>
+        <v>59.16568374633789</v>
       </c>
       <c r="H13" t="n">
-        <v>57.38351058959961</v>
+        <v>59.22359466552734</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04390550032258034</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>88</v>
-      </c>
-      <c r="D14" t="n">
-        <v>112</v>
-      </c>
-      <c r="E14" t="n">
-        <v>122</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>57.37959671020508</v>
-      </c>
-      <c r="H14" t="n">
-        <v>57.58359146118164</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.2039940059185028</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>123</v>
-      </c>
-      <c r="D15" t="n">
-        <v>119</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-124</v>
-      </c>
-      <c r="F15" t="n">
-        <v>92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>58.08774566650391</v>
-      </c>
-      <c r="H15" t="n">
-        <v>58.13164138793945</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.04389650002121925</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>42</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36</v>
-      </c>
-      <c r="E16" t="n">
-        <v>52</v>
-      </c>
-      <c r="F16" t="n">
-        <v>38</v>
-      </c>
-      <c r="G16" t="n">
-        <v>58.5036506652832</v>
-      </c>
-      <c r="H16" t="n">
-        <v>58.54961395263672</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.04596599936485291</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>-128</v>
-      </c>
-      <c r="D17" t="n">
-        <v>83</v>
-      </c>
-      <c r="E17" t="n">
-        <v>11</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G17" t="n">
-        <v>59.18439102172852</v>
-      </c>
-      <c r="H17" t="n">
-        <v>59.22768020629883</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.04328899830579758</v>
+        <v>0.05791100114583969</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2218,29 +1753,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-62</v>
+        <v>-48</v>
       </c>
       <c r="D2" t="n">
-        <v>-24</v>
+        <v>-44</v>
       </c>
       <c r="E2" t="n">
-        <v>-54</v>
+        <v>-115</v>
       </c>
       <c r="F2" t="n">
-        <v>-35</v>
+        <v>-115</v>
       </c>
       <c r="G2" t="n">
-        <v>88.95561218261719</v>
+        <v>89.25959014892578</v>
       </c>
       <c r="H2" t="n">
-        <v>88.99951171875</v>
+        <v>89.32053375244141</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04389550164341927</v>
+        <v>0.06094300001859665</v>
       </c>
     </row>
     <row r="3">
@@ -2249,29 +1784,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Micro</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-113</v>
+        <v>-60</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>-94</v>
       </c>
       <c r="E3" t="n">
-        <v>-50</v>
+        <v>-69</v>
       </c>
       <c r="F3" t="n">
-        <v>-105</v>
+        <v>-95</v>
       </c>
       <c r="G3" t="n">
-        <v>89.285888671875</v>
+        <v>90.01171875</v>
       </c>
       <c r="H3" t="n">
-        <v>89.31649017333984</v>
+        <v>90.04763031005859</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03059650026261806</v>
+        <v>0.03591249883174896</v>
       </c>
     </row>
     <row r="4">
@@ -2280,29 +1815,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-115</v>
+        <v>-81</v>
       </c>
       <c r="D4" t="n">
-        <v>-116</v>
+        <v>-81</v>
       </c>
       <c r="E4" t="n">
-        <v>-123</v>
+        <v>-125</v>
       </c>
       <c r="F4" t="n">
-        <v>-103</v>
+        <v>-72</v>
       </c>
       <c r="G4" t="n">
-        <v>89.32469177246094</v>
+        <v>90.59356689453125</v>
       </c>
       <c r="H4" t="n">
-        <v>89.36758422851562</v>
+        <v>90.63956451416016</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04289200156927109</v>
+        <v>0.04600349813699722</v>
       </c>
     </row>
     <row r="5">
@@ -2311,29 +1846,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-48</v>
+        <v>118</v>
       </c>
       <c r="D5" t="n">
-        <v>-97</v>
+        <v>-72</v>
       </c>
       <c r="E5" t="n">
-        <v>-66</v>
+        <v>-30</v>
       </c>
       <c r="F5" t="n">
-        <v>-87</v>
+        <v>-95</v>
       </c>
       <c r="G5" t="n">
-        <v>89.98165130615234</v>
+        <v>90.99757385253906</v>
       </c>
       <c r="H5" t="n">
-        <v>90.02356719970703</v>
+        <v>91.07958984375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04191549867391586</v>
+        <v>0.08201450109481812</v>
       </c>
     </row>
     <row r="6">
@@ -2342,29 +1877,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>-26</v>
       </c>
       <c r="D6" t="n">
-        <v>-62</v>
+        <v>-78</v>
       </c>
       <c r="E6" t="n">
-        <v>123</v>
+        <v>-114</v>
       </c>
       <c r="F6" t="n">
-        <v>-69</v>
+        <v>-121</v>
       </c>
       <c r="G6" t="n">
-        <v>90.61956024169922</v>
+        <v>91.48359680175781</v>
       </c>
       <c r="H6" t="n">
-        <v>90.66049194335938</v>
+        <v>91.52111053466797</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04092749953269958</v>
+        <v>0.03751549869775772</v>
       </c>
     </row>
     <row r="7">
@@ -2373,29 +1908,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E7" t="n">
-        <v>-23</v>
+        <v>43</v>
       </c>
       <c r="F7" t="n">
-        <v>-101</v>
+        <v>99</v>
       </c>
       <c r="G7" t="n">
-        <v>91.02364349365234</v>
+        <v>92.45159912109375</v>
       </c>
       <c r="H7" t="n">
-        <v>91.06752014160156</v>
+        <v>92.48969268798828</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04387899860739708</v>
+        <v>0.03809349983930588</v>
       </c>
     </row>
     <row r="8">
@@ -2404,29 +1939,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-88</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="E8" t="n">
-        <v>-120</v>
+        <v>-42</v>
       </c>
       <c r="F8" t="n">
-        <v>-119</v>
+        <v>-90</v>
       </c>
       <c r="G8" t="n">
-        <v>91.51171112060547</v>
+        <v>92.49772644042969</v>
       </c>
       <c r="H8" t="n">
-        <v>91.55557250976562</v>
+        <v>92.54856109619141</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04385799914598465</v>
+        <v>0.05083350092172623</v>
       </c>
     </row>
     <row r="9">
@@ -2435,246 +1970,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-3</v>
+        <v>-100</v>
       </c>
       <c r="D9" t="n">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>-89</v>
       </c>
       <c r="F9" t="n">
-        <v>105</v>
+        <v>-94</v>
       </c>
       <c r="G9" t="n">
-        <v>92.27156829833984</v>
+        <v>92.84761047363281</v>
       </c>
       <c r="H9" t="n">
-        <v>92.31167602539062</v>
+        <v>92.88961791992188</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0401110015809536</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>-81</v>
-      </c>
-      <c r="D10" t="n">
-        <v>110</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-34</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-97</v>
-      </c>
-      <c r="G10" t="n">
-        <v>92.53981781005859</v>
-      </c>
-      <c r="H10" t="n">
-        <v>92.58360290527344</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.04377799853682518</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-28</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-101</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-113</v>
-      </c>
-      <c r="F11" t="n">
-        <v>118</v>
-      </c>
-      <c r="G11" t="n">
-        <v>92.57962799072266</v>
-      </c>
-      <c r="H11" t="n">
-        <v>92.78366088867188</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2040330022573471</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>-111</v>
-      </c>
-      <c r="D12" t="n">
-        <v>117</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-109</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-82</v>
-      </c>
-      <c r="G12" t="n">
-        <v>92.7796630859375</v>
-      </c>
-      <c r="H12" t="n">
-        <v>92.98370361328125</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.2040414959192276</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-109</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-123</v>
-      </c>
-      <c r="G13" t="n">
-        <v>93.95645904541016</v>
-      </c>
-      <c r="H13" t="n">
-        <v>93.99758911132812</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.04112349823117256</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>-111</v>
-      </c>
-      <c r="D14" t="n">
-        <v>124</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-106</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-125</v>
-      </c>
-      <c r="G14" t="n">
-        <v>94.9478759765625</v>
-      </c>
-      <c r="H14" t="n">
-        <v>94.98795318603516</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.04008049890398979</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>-90</v>
-      </c>
-      <c r="D15" t="n">
-        <v>55</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-99</v>
-      </c>
-      <c r="F15" t="n">
-        <v>63</v>
-      </c>
-      <c r="G15" t="n">
-        <v>95.52763366699219</v>
-      </c>
-      <c r="H15" t="n">
-        <v>95.56788635253906</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.04025150090456009</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-99</v>
-      </c>
-      <c r="D16" t="n">
-        <v>62</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-103</v>
-      </c>
-      <c r="F16" t="n">
-        <v>89</v>
-      </c>
-      <c r="G16" t="n">
-        <v>95.5635986328125</v>
-      </c>
-      <c r="H16" t="n">
-        <v>95.58358001708984</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.01998049952089787</v>
+        <v>0.04200800135731697</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2744,29 +2062,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-97</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>-89</v>
+        <v>-3</v>
       </c>
       <c r="E2" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F2" t="n">
-        <v>-74</v>
+        <v>-67</v>
       </c>
       <c r="G2" t="n">
-        <v>113.050537109375</v>
+        <v>113.0035934448242</v>
       </c>
       <c r="H2" t="n">
-        <v>113.0916519165039</v>
+        <v>113.0548629760742</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04111700132489204</v>
+        <v>0.05126750096678734</v>
       </c>
     </row>
     <row r="3">
@@ -2775,29 +2093,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>-101</v>
       </c>
       <c r="D3" t="n">
-        <v>-106</v>
+        <v>-81</v>
       </c>
       <c r="E3" t="n">
         <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>-113</v>
+        <v>-110</v>
       </c>
       <c r="G3" t="n">
-        <v>114.4136734008789</v>
+        <v>114.3916397094727</v>
       </c>
       <c r="H3" t="n">
-        <v>114.4556350708008</v>
+        <v>114.4515686035156</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04196250066161156</v>
+        <v>0.05992849916219711</v>
       </c>
     </row>
     <row r="4">
@@ -2806,29 +2124,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>-51</v>
+        <v>124</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F4" t="n">
-        <v>-99</v>
+        <v>-123</v>
       </c>
       <c r="G4" t="n">
-        <v>116.2109298706055</v>
+        <v>114.543571472168</v>
       </c>
       <c r="H4" t="n">
-        <v>116.2515487670898</v>
+        <v>114.5796508789062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04061900079250336</v>
+        <v>0.03607749938964844</v>
       </c>
     </row>
     <row r="5">
@@ -2837,29 +2155,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>-98</v>
+        <v>124</v>
       </c>
       <c r="E5" t="n">
-        <v>-80</v>
+        <v>61</v>
       </c>
       <c r="F5" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G5" t="n">
-        <v>116.2475891113281</v>
+        <v>114.6436157226562</v>
       </c>
       <c r="H5" t="n">
-        <v>116.4516372680664</v>
+        <v>114.6836090087891</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2040469944477081</v>
+        <v>0.03999499976634979</v>
       </c>
     </row>
     <row r="6">
@@ -2868,29 +2186,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-91</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E6" t="n">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>-17</v>
+        <v>-99</v>
       </c>
       <c r="G6" t="n">
-        <v>117.3492202758789</v>
+        <v>116.1435852050781</v>
       </c>
       <c r="H6" t="n">
-        <v>117.3916625976562</v>
+        <v>116.2515487670898</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04244450107216835</v>
+        <v>0.107964999973774</v>
       </c>
     </row>
     <row r="7">
@@ -2899,29 +2217,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="D7" t="n">
-        <v>-7</v>
+        <v>120</v>
       </c>
       <c r="E7" t="n">
-        <v>-29</v>
+        <v>-37</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>-98</v>
       </c>
       <c r="G7" t="n">
-        <v>117.7555923461914</v>
+        <v>116.321647644043</v>
       </c>
       <c r="H7" t="n">
-        <v>117.7995452880859</v>
+        <v>116.3916702270508</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04395199939608574</v>
+        <v>0.07001949846744537</v>
       </c>
     </row>
     <row r="8">
@@ -2930,29 +2248,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-104</v>
+        <v>-34</v>
       </c>
       <c r="D8" t="n">
-        <v>-107</v>
+        <v>-126</v>
       </c>
       <c r="E8" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F8" t="n">
-        <v>-112</v>
+        <v>-20</v>
       </c>
       <c r="G8" t="n">
-        <v>118.4675827026367</v>
+        <v>117.3355712890625</v>
       </c>
       <c r="H8" t="n">
-        <v>118.5368423461914</v>
+        <v>117.3796081542969</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06926149874925613</v>
+        <v>0.04403100162744522</v>
       </c>
     </row>
     <row r="9">
@@ -2961,29 +2279,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D9" t="n">
-        <v>123</v>
+        <v>-24</v>
       </c>
       <c r="E9" t="n">
-        <v>114</v>
+        <v>-15</v>
       </c>
       <c r="F9" t="n">
-        <v>62</v>
+        <v>-3</v>
       </c>
       <c r="G9" t="n">
-        <v>118.5036087036133</v>
+        <v>117.7216644287109</v>
       </c>
       <c r="H9" t="n">
-        <v>118.7067108154297</v>
+        <v>117.7596130371094</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2030970007181168</v>
+        <v>0.03794850036501884</v>
       </c>
     </row>
     <row r="10">
@@ -2992,29 +2310,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>-33</v>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="G10" t="n">
-        <v>118.7036895751953</v>
+        <v>118.4396209716797</v>
       </c>
       <c r="H10" t="n">
-        <v>118.90771484375</v>
+        <v>118.5036087036133</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2040255069732666</v>
+        <v>0.06399349868297577</v>
       </c>
     </row>
     <row r="11">
@@ -3023,29 +2341,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-98</v>
+        <v>106</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>-107</v>
       </c>
       <c r="E11" t="n">
-        <v>-88</v>
+        <v>-112</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="G11" t="n">
-        <v>119.6636123657227</v>
+        <v>118.5708618164062</v>
       </c>
       <c r="H11" t="n">
-        <v>119.7036743164062</v>
+        <v>118.6176452636719</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04005900025367737</v>
+        <v>0.04677949845790863</v>
       </c>
     </row>
     <row r="12">
@@ -3054,29 +2372,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>Saccade</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-84</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>-86</v>
+        <v>86</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>119.6996307373047</v>
+        <v>119.2836380004883</v>
       </c>
       <c r="H12" t="n">
-        <v>119.7175903320312</v>
+        <v>119.3258209228516</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0179590005427599</v>
+        <v>0.04218149930238724</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Saccade</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>71</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-96</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>119.6356430053711</v>
+      </c>
+      <c r="H13" t="n">
+        <v>119.6716003417969</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.03595700114965439</v>
       </c>
     </row>
   </sheetData>
